--- a/data/PW006.xlsx
+++ b/data/PW006.xlsx
@@ -58,7 +58,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>01/30/2017</t>
+    <t>03/03/2017</t>
   </si>
   <si>
     <t>12:00 PM</t>
@@ -283,7 +283,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -358,8 +358,8 @@
         <v>14</v>
       </c>
       <c r="H2" s="5" t="str">
-        <f aca="false">TEXT(F2,"mmmm dd")</f>
-        <v>January 30</v>
+        <f aca="false">TEXT(F2,"mmmm d")</f>
+        <v>March 3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>9</v>
